--- a/biology/Mycologie/Olpidium/Olpidium.xlsx
+++ b/biology/Mycologie/Olpidium/Olpidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olpidium est un genre de champignons chytrides de la famille des Olpidiaceae.
-Ce genre ubiquiste a une vaste gamme d'hôtes. Il comprend des espèces parasites intercellulaires des racines des plantes vasculaires, en général non pathogènes. Cependant certaines espèces sont les vecteurs de nombreux phytovirus appartenant à quatre familles virales, comme le virus des grosses nervures de la laitue (MLBVV, Mirafiori lettuce big vein virus), transmis par Olpidium virulentis[1].
-D'autres espèces parasitent des espèces appartenant au phytoplancton, des rotifères, des œufs de nématodes ainsi que d'autres champignons, notamment des champignons phytopathogènes de l'ordre des Pucciniales (rouilles), tels que des espèces du genre Uromyces parasitées par Olpidium uredinis[2], ainsi que des protistes[3].
+Ce genre ubiquiste a une vaste gamme d'hôtes. Il comprend des espèces parasites intercellulaires des racines des plantes vasculaires, en général non pathogènes. Cependant certaines espèces sont les vecteurs de nombreux phytovirus appartenant à quatre familles virales, comme le virus des grosses nervures de la laitue (MLBVV, Mirafiori lettuce big vein virus), transmis par Olpidium virulentis.
+D'autres espèces parasitent des espèces appartenant au phytoplancton, des rotifères, des œufs de nématodes ainsi que d'autres champignons, notamment des champignons phytopathogènes de l'ordre des Pucciniales (rouilles), tels que des espèces du genre Uromyces parasitées par Olpidium uredinis, ainsi que des protistes.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (8 novembre 2014)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 novembre 2014) :
 Chytridium subgen. Olpidium A. Braun, 1856 ;
 Cyphidium Magnus, Wiss. Meeresuntersuch. 1875 ;
 Olpidiella Lagerh., 1888 ;
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 novembre 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 novembre 2014) :
 Olpidium agrostidis
 Olpidium algarum
 Olpidium allomycetos
@@ -602,7 +618,7 @@
 Olpidium vermicola
 Olpidium verrucosum
 Olpidium viciae
-Selon Index Fungorum                                      (9 novembre 2014)[6] :
+Selon Index Fungorum                                      (9 novembre 2014) :
 Olpidium aggregatum P.A. Dang. 1891
 Olpidium agrostidis Sampson 1932
 Olpidium algarum Sorokīn 1889
